--- a/andes/cases/ieee14/ieee14_plbvfu1.xlsx
+++ b/andes/cases/ieee14/ieee14_plbvfu1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/ieee14/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1D9EF9-2B9A-3D48-B68E-ACFD56996C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="8180" windowWidth="35000" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Fault" sheetId="1" r:id="rId1"/>
@@ -23,18 +17,18 @@
     <sheet name="Line" sheetId="8" r:id="rId8"/>
     <sheet name="Area" sheetId="9" r:id="rId9"/>
     <sheet name="GENROU" sheetId="10" r:id="rId10"/>
-    <sheet name="TGOV1" sheetId="11" r:id="rId11"/>
-    <sheet name="EXST1" sheetId="12" r:id="rId12"/>
-    <sheet name="ESST3A" sheetId="13" r:id="rId13"/>
-    <sheet name="BusFreq" sheetId="14" r:id="rId14"/>
-    <sheet name="PLBVFU1" sheetId="15" r:id="rId15"/>
+    <sheet name="PLBVFU1" sheetId="11" r:id="rId11"/>
+    <sheet name="TGOV1" sheetId="12" r:id="rId12"/>
+    <sheet name="EXST1" sheetId="13" r:id="rId13"/>
+    <sheet name="ESST3A" sheetId="14" r:id="rId14"/>
+    <sheet name="BusFreq" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="190">
   <si>
     <t>idx</t>
   </si>
@@ -447,6 +441,30 @@
     <t>GENROU_4</t>
   </si>
   <si>
+    <t>Vflag</t>
+  </si>
+  <si>
+    <t>fflag</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>Vscale</t>
+  </si>
+  <si>
+    <t>fscale</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>Tf</t>
+  </si>
+  <si>
+    <t>PLBVF.xlsx</t>
+  </si>
+  <si>
     <t>syn</t>
   </si>
   <si>
@@ -570,9 +588,6 @@
     <t>ESST3A_4</t>
   </si>
   <si>
-    <t>Tf</t>
-  </si>
-  <si>
     <t>Tw</t>
   </si>
   <si>
@@ -583,34 +598,13 @@
   </si>
   <si>
     <t>BusFreq_3</t>
-  </si>
-  <si>
-    <t>Vflag</t>
-  </si>
-  <si>
-    <t>fflag</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>Vscale</t>
-  </si>
-  <si>
-    <t>fscale</t>
-  </si>
-  <si>
-    <t>Tv</t>
-  </si>
-  <si>
-    <t>PLBVF.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,14 +667,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -727,7 +713,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,27 +745,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,24 +779,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1004,17 +954,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.1</v>
+      </c>
+      <c r="H2">
+        <v>0.0001</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1031,80 +1055,6 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H2">
-        <v>1E-4</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AE5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1183,7 +1133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1272,7 +1222,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1340,13 +1290,13 @@
         <v>1.75</v>
       </c>
       <c r="Y3">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Z3">
         <v>0.8</v>
       </c>
       <c r="AA3">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AB3">
         <v>6.5</v>
@@ -1361,7 +1311,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1450,7 +1400,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1518,13 +1468,13 @@
         <v>1.75</v>
       </c>
       <c r="Y5">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Z5">
         <v>0.8</v>
       </c>
       <c r="AA5">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="AB5">
         <v>6.5</v>
@@ -1545,17 +1495,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1569,198 +1519,102 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>110</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.02</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>144</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.05</v>
-      </c>
-      <c r="I2">
-        <v>1.05</v>
-      </c>
-      <c r="J2">
-        <v>0.3</v>
-      </c>
-      <c r="K2">
-        <v>0.05</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>2.1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.05</v>
-      </c>
-      <c r="I3">
-        <v>1.2</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2.1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.05</v>
-      </c>
-      <c r="I4">
-        <v>1.2</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0.05</v>
-      </c>
-      <c r="I5">
-        <v>1.05</v>
-      </c>
-      <c r="J5">
-        <v>0.3</v>
-      </c>
-      <c r="K5">
-        <v>0.05</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0.2</v>
+      </c>
+      <c r="R2">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1623,231 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>1.05</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0.05</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2.1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>1.2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2.1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.05</v>
+      </c>
+      <c r="I4">
+        <v>1.2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <v>1.05</v>
+      </c>
+      <c r="J5">
+        <v>0.3</v>
+      </c>
+      <c r="K5">
+        <v>0.05</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1777,9 +1855,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1793,57 +1871,57 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>134</v>
@@ -1883,342 +1961,6 @@
       </c>
       <c r="Q2">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:Z4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2">
-        <v>0.02</v>
-      </c>
-      <c r="G2">
-        <v>0.2</v>
-      </c>
-      <c r="H2">
-        <v>-0.2</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>99</v>
-      </c>
-      <c r="O2">
-        <v>-99</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>3.67</v>
-      </c>
-      <c r="R2">
-        <v>0.435</v>
-      </c>
-      <c r="S2">
-        <v>5.48</v>
-      </c>
-      <c r="T2">
-        <v>0.01</v>
-      </c>
-      <c r="U2">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="V2">
-        <v>3.86</v>
-      </c>
-      <c r="W2">
-        <v>3.33</v>
-      </c>
-      <c r="X2">
-        <v>0.4</v>
-      </c>
-      <c r="Y2">
-        <v>99</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-      <c r="H3">
-        <v>-0.2</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>99</v>
-      </c>
-      <c r="O3">
-        <v>-99</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>3.67</v>
-      </c>
-      <c r="R3">
-        <v>0.435</v>
-      </c>
-      <c r="S3">
-        <v>5.48</v>
-      </c>
-      <c r="T3">
-        <v>0.01</v>
-      </c>
-      <c r="U3">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="V3">
-        <v>3.86</v>
-      </c>
-      <c r="W3">
-        <v>3.33</v>
-      </c>
-      <c r="X3">
-        <v>0.4</v>
-      </c>
-      <c r="Y3">
-        <v>99</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-      <c r="H4">
-        <v>-0.2</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>99</v>
-      </c>
-      <c r="O4">
-        <v>-99</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>3.67</v>
-      </c>
-      <c r="R4">
-        <v>0.435</v>
-      </c>
-      <c r="S4">
-        <v>5.48</v>
-      </c>
-      <c r="T4">
-        <v>0.01</v>
-      </c>
-      <c r="U4">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="V4">
-        <v>3.86</v>
-      </c>
-      <c r="W4">
-        <v>3.33</v>
-      </c>
-      <c r="X4">
-        <v>0.4</v>
-      </c>
-      <c r="Y4">
-        <v>99</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +1969,343 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>-0.2</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>99</v>
+      </c>
+      <c r="O2">
+        <v>-99</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3.67</v>
+      </c>
+      <c r="R2">
+        <v>0.435</v>
+      </c>
+      <c r="S2">
+        <v>5.48</v>
+      </c>
+      <c r="T2">
+        <v>0.01</v>
+      </c>
+      <c r="U2">
+        <v>0.0098</v>
+      </c>
+      <c r="V2">
+        <v>3.86</v>
+      </c>
+      <c r="W2">
+        <v>3.33</v>
+      </c>
+      <c r="X2">
+        <v>0.4</v>
+      </c>
+      <c r="Y2">
+        <v>99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>-0.2</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>99</v>
+      </c>
+      <c r="O3">
+        <v>-99</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>3.67</v>
+      </c>
+      <c r="R3">
+        <v>0.435</v>
+      </c>
+      <c r="S3">
+        <v>5.48</v>
+      </c>
+      <c r="T3">
+        <v>0.01</v>
+      </c>
+      <c r="U3">
+        <v>0.0098</v>
+      </c>
+      <c r="V3">
+        <v>3.86</v>
+      </c>
+      <c r="W3">
+        <v>3.33</v>
+      </c>
+      <c r="X3">
+        <v>0.4</v>
+      </c>
+      <c r="Y3">
+        <v>99</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4">
+        <v>0.02</v>
+      </c>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <v>-0.2</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>99</v>
+      </c>
+      <c r="O4">
+        <v>-99</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>3.67</v>
+      </c>
+      <c r="R4">
+        <v>0.435</v>
+      </c>
+      <c r="S4">
+        <v>5.48</v>
+      </c>
+      <c r="T4">
+        <v>0.01</v>
+      </c>
+      <c r="U4">
+        <v>0.0098</v>
+      </c>
+      <c r="V4">
+        <v>3.86</v>
+      </c>
+      <c r="W4">
+        <v>3.33</v>
+      </c>
+      <c r="X4">
+        <v>0.4</v>
+      </c>
+      <c r="Y4">
+        <v>99</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2235,9 +2313,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2254,27 +2332,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2289,18 +2367,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2315,18 +2393,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2339,122 +2417,6 @@
       </c>
       <c r="H4">
         <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.02</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0.2</v>
-      </c>
-      <c r="P2">
-        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -2463,17 +2425,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2511,7 +2473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2555,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2563,9 +2525,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2626,7 +2588,7 @@
         <v>69</v>
       </c>
       <c r="F2">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G2">
         <v>0.9</v>
@@ -2653,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2670,16 +2632,16 @@
         <v>69</v>
       </c>
       <c r="F3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G3">
         <v>0.9</v>
       </c>
       <c r="H3">
-        <v>1.0197000000000001</v>
+        <v>1.0197</v>
       </c>
       <c r="I3">
-        <v>-2.7981118567973098E-2</v>
+        <v>-0.0279811185679731</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2697,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2714,16 +2676,16 @@
         <v>69</v>
       </c>
       <c r="F4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G4">
         <v>0.9</v>
       </c>
       <c r="H4">
-        <v>1.0004200000000001</v>
+        <v>1.00042</v>
       </c>
       <c r="I4">
-        <v>-6.0096922133920698E-2</v>
+        <v>-0.0600969221339207</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2741,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2758,16 +2720,16 @@
         <v>69</v>
       </c>
       <c r="F5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G5">
         <v>0.9</v>
       </c>
       <c r="H5">
-        <v>0.99858000000000002</v>
+        <v>0.99858</v>
       </c>
       <c r="I5">
-        <v>-7.47210359363812E-2</v>
+        <v>-0.0747210359363812</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2785,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2802,16 +2764,16 @@
         <v>69</v>
       </c>
       <c r="F6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G6">
         <v>0.9</v>
       </c>
       <c r="H6">
-        <v>1.0044299999999999</v>
+        <v>1.00443</v>
       </c>
       <c r="I6">
-        <v>-6.4315382935990997E-2</v>
+        <v>-0.064315382935991</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2829,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2846,16 +2808,16 @@
         <v>138</v>
       </c>
       <c r="F7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G7">
         <v>0.9</v>
       </c>
       <c r="H7">
-        <v>0.99870999999999999</v>
+        <v>0.99871</v>
       </c>
       <c r="I7">
-        <v>-0.10999763077769099</v>
+        <v>-0.109997630777691</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2873,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2890,7 +2852,7 @@
         <v>138</v>
       </c>
       <c r="F8">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G8">
         <v>0.9</v>
@@ -2899,7 +2861,7 @@
         <v>1.00682</v>
       </c>
       <c r="I8">
-        <v>-8.4285440237310202E-2</v>
+        <v>-0.0842854402373102</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2917,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2934,7 +2896,7 @@
         <v>69</v>
       </c>
       <c r="F9">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G9">
         <v>0.9</v>
@@ -2943,7 +2905,7 @@
         <v>1.01895</v>
       </c>
       <c r="I9">
-        <v>-2.4338616419060901E-2</v>
+        <v>-0.0243386164190609</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2961,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2978,7 +2940,7 @@
         <v>138</v>
       </c>
       <c r="F10">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G10">
         <v>0.9</v>
@@ -2987,7 +2949,7 @@
         <v>1.00193</v>
       </c>
       <c r="I10">
-        <v>-0.12750153784594201</v>
+        <v>-0.127501537845942</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3005,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3022,7 +2984,7 @@
         <v>138</v>
       </c>
       <c r="F11">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G11">
         <v>0.9</v>
@@ -3031,7 +2993,7 @@
         <v>0.99351</v>
       </c>
       <c r="I11">
-        <v>-0.13020156219877699</v>
+        <v>-0.130201562198777</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3049,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3066,13 +3028,13 @@
         <v>138</v>
       </c>
       <c r="F12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G12">
         <v>0.9</v>
       </c>
       <c r="H12">
-        <v>0.99245000000000005</v>
+        <v>0.9924500000000001</v>
       </c>
       <c r="I12">
         <v>-0.122947973827489</v>
@@ -3093,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3110,13 +3072,13 @@
         <v>138</v>
       </c>
       <c r="F13">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G13">
         <v>0.9</v>
       </c>
       <c r="H13">
-        <v>0.98638999999999999</v>
+        <v>0.98639</v>
       </c>
       <c r="I13">
         <v>-0.128934453161829</v>
@@ -3137,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3154,16 +3116,16 @@
         <v>138</v>
       </c>
       <c r="F14">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G14">
         <v>0.9</v>
       </c>
       <c r="H14">
-        <v>0.98402999999999996</v>
+        <v>0.98403</v>
       </c>
       <c r="I14">
-        <v>-0.13378646848237299</v>
+        <v>-0.133786468482373</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3181,7 +3143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3198,13 +3160,13 @@
         <v>138</v>
       </c>
       <c r="F15">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G15">
         <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.99063000000000001</v>
+        <v>0.99063</v>
       </c>
       <c r="I15">
         <v>-0.16691630834373</v>
@@ -3231,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3239,9 +3201,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3276,7 +3238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3311,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3346,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3366,7 +3328,7 @@
         <v>69</v>
       </c>
       <c r="G4">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -3381,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3401,10 +3363,10 @@
         <v>69</v>
       </c>
       <c r="G5">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="H5">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="I5">
         <v>1.2</v>
@@ -3416,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3439,7 +3401,7 @@
         <v>0.15</v>
       </c>
       <c r="H6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="I6">
         <v>1.2</v>
@@ -3451,7 +3413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3471,10 +3433,10 @@
         <v>138</v>
       </c>
       <c r="G7">
-        <v>0.29499999999999998</v>
+        <v>0.295</v>
       </c>
       <c r="H7">
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="I7">
         <v>1.2</v>
@@ -3486,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3509,7 +3471,7 @@
         <v>0.09</v>
       </c>
       <c r="H8">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I8">
         <v>1.2</v>
@@ -3521,7 +3483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3541,10 +3503,10 @@
         <v>138</v>
       </c>
       <c r="G9">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="H9">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="I9">
         <v>1.2</v>
@@ -3556,7 +3518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3576,10 +3538,10 @@
         <v>138</v>
       </c>
       <c r="G10">
-        <v>6.0999999999999999E-2</v>
+        <v>0.061</v>
       </c>
       <c r="H10">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="I10">
         <v>1.2</v>
@@ -3591,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3611,10 +3573,10 @@
         <v>138</v>
       </c>
       <c r="G11">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="H11">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="I11">
         <v>1.2</v>
@@ -3626,7 +3588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3649,7 +3611,7 @@
         <v>0.2</v>
       </c>
       <c r="H12">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I12">
         <v>1.2</v>
@@ -3667,7 +3629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,9 +3637,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -3736,7 +3698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3792,7 +3754,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3848,7 +3810,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3904,7 +3866,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3966,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,9 +3936,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4038,7 +4000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4061,10 +4023,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.81442000000000003</v>
+        <v>0.81442</v>
       </c>
       <c r="J2">
-        <v>1.9619999999999999E-2</v>
+        <v>0.01962</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4103,7 +4065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4111,9 +4073,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4145,7 +4107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4177,7 +4139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4215,7 +4177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4223,9 +4185,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4299,7 +4261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4331,13 +4293,13 @@
         <v>69</v>
       </c>
       <c r="K2">
-        <v>1.9380000000000001E-2</v>
+        <v>0.01938</v>
       </c>
       <c r="L2">
-        <v>5.917E-2</v>
+        <v>0.05917</v>
       </c>
       <c r="M2">
-        <v>5.28E-2</v>
+        <v>0.0528</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -4364,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4396,13 +4358,13 @@
         <v>69</v>
       </c>
       <c r="K3">
-        <v>5.4030000000000002E-2</v>
+        <v>0.05403</v>
       </c>
       <c r="L3">
-        <v>0.22303999999999999</v>
+        <v>0.22304</v>
       </c>
       <c r="M3">
-        <v>4.9200000000000001E-2</v>
+        <v>0.0492</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -4429,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4461,13 +4423,13 @@
         <v>69</v>
       </c>
       <c r="K4">
-        <v>4.6989999999999997E-2</v>
+        <v>0.04699</v>
       </c>
       <c r="L4">
-        <v>0.19797000000000001</v>
+        <v>0.19797</v>
       </c>
       <c r="M4">
-        <v>4.3799999999999999E-2</v>
+        <v>0.0438</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -4494,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4526,13 +4488,13 @@
         <v>69</v>
       </c>
       <c r="K5">
-        <v>5.8110000000000002E-2</v>
+        <v>0.05811</v>
       </c>
       <c r="L5">
         <v>0.17632</v>
       </c>
       <c r="M5">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -4559,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4591,13 +4553,13 @@
         <v>69</v>
       </c>
       <c r="K6">
-        <v>5.6950000000000001E-2</v>
+        <v>0.05695</v>
       </c>
       <c r="L6">
-        <v>0.17388000000000001</v>
+        <v>0.17388</v>
       </c>
       <c r="M6">
-        <v>3.4599999999999999E-2</v>
+        <v>0.0346</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -4624,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4656,13 +4618,13 @@
         <v>69</v>
       </c>
       <c r="K7">
-        <v>6.701E-2</v>
+        <v>0.06701</v>
       </c>
       <c r="L7">
-        <v>0.17102999999999999</v>
+        <v>0.17103</v>
       </c>
       <c r="M7">
-        <v>1.2800000000000001E-2</v>
+        <v>0.0128</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -4689,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4721,10 +4683,10 @@
         <v>69</v>
       </c>
       <c r="K8">
-        <v>1.3350000000000001E-2</v>
+        <v>0.01335</v>
       </c>
       <c r="L8">
-        <v>4.2110000000000002E-2</v>
+        <v>0.04211</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -4754,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4786,10 +4748,10 @@
         <v>138</v>
       </c>
       <c r="K9">
-        <v>9.4979999999999995E-2</v>
+        <v>0.09497999999999999</v>
       </c>
       <c r="L9">
-        <v>0.19889999999999999</v>
+        <v>0.1989</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4819,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4851,10 +4813,10 @@
         <v>138</v>
       </c>
       <c r="K10">
-        <v>0.12291000000000001</v>
+        <v>0.12291</v>
       </c>
       <c r="L10">
-        <v>0.25580999999999998</v>
+        <v>0.25581</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4884,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4916,7 +4878,7 @@
         <v>138</v>
       </c>
       <c r="K11">
-        <v>6.615E-2</v>
+        <v>0.06615</v>
       </c>
       <c r="L11">
         <v>0.13027</v>
@@ -4949,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5014,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5046,10 +5008,10 @@
         <v>138</v>
       </c>
       <c r="K13">
-        <v>3.1809999999999998E-2</v>
+        <v>0.03181</v>
       </c>
       <c r="L13">
-        <v>8.4500000000000006E-2</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -5079,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5114,7 +5076,7 @@
         <v>0.12711</v>
       </c>
       <c r="L14">
-        <v>0.27038000000000001</v>
+        <v>0.27038</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -5144,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5176,10 +5138,10 @@
         <v>138</v>
       </c>
       <c r="K15">
-        <v>8.2049999999999998E-2</v>
+        <v>0.08205</v>
       </c>
       <c r="L15">
-        <v>0.19206999999999999</v>
+        <v>0.19207</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -5209,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5241,7 +5203,7 @@
         <v>138</v>
       </c>
       <c r="K16">
-        <v>0.22092000000000001</v>
+        <v>0.22092</v>
       </c>
       <c r="L16">
         <v>0.19988</v>
@@ -5274,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5339,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5398,13 +5360,13 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0.99677000000000004</v>
+        <v>0.99677</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5439,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.55618000000000001</v>
+        <v>0.55618</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -5463,13 +5425,13 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.99677000000000004</v>
+        <v>0.99677</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5504,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.25202000000000002</v>
+        <v>0.25202</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5528,13 +5490,13 @@
         <v>1</v>
       </c>
       <c r="T20">
-        <v>0.99677000000000004</v>
+        <v>0.99677</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5593,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0.99677000000000004</v>
+        <v>0.99677</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -5605,7 +5567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5613,9 +5575,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -5629,7 +5591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5643,7 +5605,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
